--- a/xlsx/节奏布鲁斯_intext.xlsx
+++ b/xlsx/节奏布鲁斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>节奏布鲁斯</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>藍調</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_节奏布鲁斯</t>
+    <t>蓝调</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_节奏布鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>福音音樂</t>
+    <t>福音音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E4%BB%96</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%96%AF</t>
   </si>
   <si>
-    <t>貝斯</t>
+    <t>贝斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%96%AF%E9%A2%A8</t>
   </si>
   <si>
-    <t>薩克斯風</t>
+    <t>萨克斯风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E7%9B%A4_(%E6%A8%82%E5%99%A8)</t>
   </si>
   <si>
-    <t>鍵盤 (樂器)</t>
+    <t>键盘 (乐器)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/New_Jack_Swing</t>
@@ -77,9 +77,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E9%9F%B3%E4%B9%90</t>
   </si>
   <si>
-    <t>福音音乐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E8%B0%83%E9%9F%B3%E4%B9%90</t>
   </si>
   <si>
@@ -119,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>非裔美國人音樂</t>
+    <t>非裔美国人音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E6%96%AF</t>
@@ -155,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E6%A8%82</t>
   </si>
   <si>
-    <t>靈魂樂</t>
+    <t>灵魂乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%85%8B%E9%9F%B3%E4%B9%90</t>
@@ -179,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>流行音樂</t>
+    <t>流行音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非洲裔美國人</t>
+    <t>非洲裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E6%96%AF%E9%9F%B3%E4%B9%90</t>
@@ -197,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%BB%E5%93%88%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>嘻哈音樂</t>
+    <t>嘻哈音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E4%BB%A3%E7%AF%80%E5%A5%8F%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>當代節奏藍調</t>
+    <t>当代节奏蓝调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
@@ -227,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%82%91%E5%85%8B%E6%90%96%E6%93%BA</t>
   </si>
   <si>
-    <t>新傑克搖擺</t>
+    <t>新杰克摇摆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_R%26B_musicians</t>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E7%A4%BA%E7%89%8C_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>告示牌 (雜誌)</t>
+    <t>告示牌 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E7%94%B5%E5%BD%B1%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -883,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
@@ -909,10 +903,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -938,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -967,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -996,10 +990,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1025,10 +1019,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1054,10 +1048,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1083,10 +1077,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1112,10 +1106,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>21</v>
@@ -1141,10 +1135,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1170,10 +1164,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1199,10 +1193,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1228,10 +1222,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1257,10 +1251,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1286,10 +1280,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1315,10 +1309,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1344,10 +1338,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1373,10 +1367,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1402,10 +1396,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1431,10 +1425,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1460,10 +1454,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1489,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1518,10 +1512,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>8</v>
@@ -1547,10 +1541,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1576,10 +1570,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1605,10 +1599,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1634,10 +1628,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1663,10 +1657,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1692,10 +1686,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1721,10 +1715,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>6</v>
@@ -1750,10 +1744,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
